--- a/docs/unit1/07_analytical/dupuit_KEY.xlsx
+++ b/docs/unit1/07_analytical/dupuit_KEY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\Documents\Courses\CE 544\in-class tasks\5. analytical solutions - profile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/My Drive (njones61@gmail.com)/work - byu/courses/CE 544/exercises/5. analytical solutions - profile/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB2B561-A565-5745-A3BF-403B642AB076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19965" windowHeight="11280"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="26120" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,20 @@
     <definedName name="K">Sheet1!$B$14</definedName>
     <definedName name="q">Sheet1!$B$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -69,13 +83,13 @@
     <t>#</t>
   </si>
   <si>
-    <t>Brigham Young University - CE En 544</t>
+    <t>Brigham Young University - CE 544</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -187,7 +201,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -216,7 +230,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -387,6 +400,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2264-A847-A424-9DB6CB825653}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -478,7 +496,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -547,7 +571,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1347" name="Chart 23"/>
+        <xdr:cNvPr id="1347" name="Chart 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043050000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -569,15 +599,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>733425</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
+          <xdr:colOff>444500</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -585,6 +615,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1335"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037050000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -643,15 +676,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
+          <xdr:colOff>368300</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>495300</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -659,6 +692,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1336"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038050000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -694,15 +730,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>101600</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -710,6 +746,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1337"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039050000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -744,9 +783,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -784,9 +823,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -821,7 +860,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,7 +895,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1029,36 +1068,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1080,7 +1119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +1130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1102,7 +1141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1126,7 +1165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1137,7 +1176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1150,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1163,7 +1202,7 @@
         <v>4.8785243670601872</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1176,7 +1215,7 @@
         <v>4.7539457296018854</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1189,7 +1228,7 @@
         <v>4.6260134024881507</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1202,7 +1241,7 @@
         <v>4.4944410108488464</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1215,7 +1254,7 @@
         <v>4.358898943540674</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1228,7 +1267,7 @@
         <v>4.2190046219457971</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1241,7 +1280,7 @@
         <v>4.0743097574926725</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1254,7 +1293,7 @@
         <v>3.9242833740697169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1267,7 +1306,7 @@
         <v>3.7682887362833544</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1280,7 +1319,7 @@
         <v>3.6055512754639891</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1293,7 +1332,7 @@
         <v>3.4351128074635335</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1306,7 +1345,7 @@
         <v>3.2557641192199416</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1319,7 +1358,7 @@
         <v>3.0659419433511785</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>14</v>
       </c>
@@ -1332,7 +1371,7 @@
         <v>2.8635642126552705</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>15</v>
       </c>
@@ -1345,7 +1384,7 @@
         <v>2.6457513110645907</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>16</v>
       </c>
@@ -1358,7 +1397,7 @@
         <v>2.4083189157584592</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>17</v>
       </c>
@@ -1371,7 +1410,7 @@
         <v>2.1447610589527222</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>18</v>
       </c>
@@ -1384,7 +1423,7 @@
         <v>1.8439088914585779</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>19</v>
       </c>
@@ -1397,7 +1436,7 @@
         <v>1.4832396974191324</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>20</v>
       </c>
@@ -1423,15 +1462,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>733425</xdr:colOff>
+                <xdr:colOff>736600</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>139700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
+                <xdr:colOff>444500</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>63500</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1448,15 +1487,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
+                <xdr:colOff>368300</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>177800</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1473,15 +1512,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>25400</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
+                <xdr:colOff>101600</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1496,26 +1535,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
